--- a/deploy/config/excel/Server.xlsx
+++ b/deploy/config/excel/Server.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\squick\build\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2FA3F-20E1-4CC8-A7A0-F18AA2363571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="614" windowWidth="32281" windowHeight="19533" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26148" windowHeight="15660" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -152,13 +146,22 @@
   </si>
   <si>
     <t>GameServer_16005</t>
+  </si>
+  <si>
+    <t>ProxyServer_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -184,7 +187,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -197,7 +199,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -208,13 +209,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +379,194 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -388,9 +720,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -440,15 +1014,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,10 +1036,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -539,9 +1160,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -551,10 +1169,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="282C34"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D8DEE9"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -798,35 +1416,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="11.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="20.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -861,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -896,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -931,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -966,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:11">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1">
+    <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1071,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1">
+    <row r="8" s="3" customFormat="1" spans="1:11">
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1">
+    <row r="9" s="3" customFormat="1" spans="1:11">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1">
+    <row r="10" s="4" customFormat="1" ht="15.15" spans="1:11">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1776,7 @@
       <c r="G10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1169,10 +1788,10 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C11">
@@ -1181,13 +1800,13 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F11">
         <v>17001</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H11">
@@ -1204,10 +1823,10 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C12">
@@ -1216,13 +1835,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F12">
         <v>15001</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H12">
@@ -1239,10 +1858,10 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C13">
@@ -1251,13 +1870,13 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F13">
         <v>13001</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H13">
@@ -1274,10 +1893,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C14">
@@ -1286,13 +1905,13 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="18">
         <v>14001</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H14">
@@ -1309,10 +1928,10 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C15">
@@ -1321,13 +1940,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="18">
         <v>18001</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H15">
@@ -1344,7 +1963,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B16">
@@ -1356,13 +1975,13 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F16">
         <v>16001</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H16">
@@ -1379,7 +1998,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B17">
@@ -1391,13 +2010,13 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F17">
         <v>16002</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H17">
@@ -1414,7 +2033,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B18">
@@ -1426,13 +2045,13 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F18">
         <v>16003</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H18">
@@ -1449,7 +2068,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B19">
@@ -1461,13 +2080,13 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F19">
         <v>16004</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H19">
@@ -1484,7 +2103,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B20">
@@ -1496,13 +2115,13 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F20">
         <v>16005</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H20">
@@ -1516,17 +2135,52 @@
       </c>
       <c r="K20" s="21">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>15001</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>5001</v>
+      </c>
+      <c r="J21" s="21">
+        <v>25001</v>
+      </c>
+      <c r="K21" s="21">
+        <v>35001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>